--- a/storage/archivos/carga_personas.xlsx
+++ b/storage/archivos/carga_personas.xlsx
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X886"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>13161199</v>
+        <v>13161150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -642,7 +642,8 @@
         <v>13</v>
       </c>
       <c r="K2" s="1">
-        <v>13161199</v>
+        <f>A2</f>
+        <v>13161150</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>29</v>
@@ -664,10 +665,11 @@
       </c>
       <c r="R2" s="1">
         <f>A2</f>
-        <v>13161199</v>
+        <v>13161150</v>
       </c>
       <c r="S2" s="1">
-        <v>13161199</v>
+        <f>A2</f>
+        <v>13161150</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>12</v>
@@ -677,14 +679,14 @@
       </c>
       <c r="V2" s="1">
         <f>A2</f>
-        <v>13161199</v>
+        <v>13161150</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="X2" s="1">
         <f>A2</f>
-        <v>13161199</v>
+        <v>13161150</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
